--- a/data/trans_orig/P34B01-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P34B01-Clase-trans_orig.xlsx
@@ -651,7 +651,7 @@
         <v>3.489035383818929</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.801317867648221</v>
+        <v>3.801317867648222</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.701761883964269</v>
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.364007725825571</v>
+        <v>2.332054169535439</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.948763975526084</v>
+        <v>2.97443026267312</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.752048548797206</v>
+        <v>3.75046891147632</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.480344632397263</v>
+        <v>2.454067176751733</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.185962627172726</v>
+        <v>3.190536238766036</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.592764628858402</v>
+        <v>3.608491866079662</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.48974548336593</v>
+        <v>2.49227826676813</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.135504223414013</v>
+        <v>3.160039565336599</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.735124912027844</v>
+        <v>3.76262559519856</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.927342699906046</v>
+        <v>2.908774755604827</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.53037853464924</v>
+        <v>3.528099646651671</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.24846402965755</v>
+        <v>4.252911383715343</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.119995280645932</v>
+        <v>3.115808881767452</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.780344754304632</v>
+        <v>3.788450664733609</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.017475871070848</v>
+        <v>4.035114452225672</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.945836717484589</v>
+        <v>2.909809042059802</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.545093370394965</v>
+        <v>3.560949368131368</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.072172092473269</v>
+        <v>4.088198124836173</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.12167367386847</v>
+        <v>2.09048446669358</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.328434400242</v>
+        <v>3.307398884978253</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.897825427257135</v>
+        <v>3.884110995453892</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.750991001845924</v>
+        <v>2.739760251435687</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.201416331317602</v>
+        <v>3.186249482838086</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.547239406005928</v>
+        <v>3.559208058106822</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.480157512007988</v>
+        <v>2.483118239067219</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>3.353755113264768</v>
+        <v>3.320441237695557</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>3.815499920496232</v>
+        <v>3.814740791902933</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.724208813212845</v>
+        <v>2.685376414272985</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.941529506991098</v>
+        <v>3.955118320927076</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.3854267868184</v>
+        <v>4.410570719649146</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.380024948627618</v>
+        <v>3.344217696044438</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.757590226344756</v>
+        <v>3.814405271273949</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>4.01888850538518</v>
+        <v>4.013798190377862</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.896535784426854</v>
+        <v>2.916738618491487</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>3.774833652652306</v>
+        <v>3.764873441287574</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>4.151927776715123</v>
+        <v>4.148637279435873</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>3.286662990600441</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.955966662848633</v>
+        <v>3.955966662848635</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.589594145954007</v>
@@ -869,7 +869,7 @@
         <v>3.229925533782927</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>3.417480090648508</v>
+        <v>3.417480090648507</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.647031292772053</v>
@@ -878,7 +878,7 @@
         <v>3.272964029141045</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3.80324731229341</v>
+        <v>3.803247312293411</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.435711807689954</v>
+        <v>2.419055759697941</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.021837159566477</v>
+        <v>3.032900274918179</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.671427373932497</v>
+        <v>3.695112718614507</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.264976033050278</v>
+        <v>2.239783412932077</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.740473132988023</v>
+        <v>2.777428677819343</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.070711911441719</v>
+        <v>3.03695201082996</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.447651827437307</v>
+        <v>2.443187603943383</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.017146762995503</v>
+        <v>3.046746650891596</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.570415973285801</v>
+        <v>3.587409354789675</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.937185420709248</v>
+        <v>2.911580524219985</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.556693625036576</v>
+        <v>3.54157926106008</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.218451333347243</v>
+        <v>4.238418654295904</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.969162446028558</v>
+        <v>2.969992502470616</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.750034139784344</v>
+        <v>3.698743179446921</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.800478195840999</v>
+        <v>3.743449099657933</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.847593406814076</v>
+        <v>2.858527943460525</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.49488395963635</v>
+        <v>3.51370874571649</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.033294290110613</v>
+        <v>4.024714967642479</v>
       </c>
     </row>
     <row r="13">
@@ -969,7 +969,7 @@
         <v>3.307987008536274</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3.800039044084606</v>
+        <v>3.800039044084605</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>2.99293579004252</v>
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.716932394287169</v>
+        <v>2.71501766298135</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.132831858061677</v>
+        <v>3.146785083233279</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.581441717109284</v>
+        <v>3.613637761004286</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.78022198260256</v>
+        <v>2.805590472595649</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.012905589209367</v>
+        <v>2.996069762165432</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.584753842961352</v>
+        <v>3.605791962921713</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.802659260450142</v>
+        <v>2.810291621626381</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>3.124703950119967</v>
+        <v>3.143755151114136</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>3.670716855447392</v>
+        <v>3.66153356879127</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.067462053771619</v>
+        <v>3.070735510860189</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.47875570237215</v>
+        <v>3.489864082841099</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.982376312773336</v>
+        <v>3.984473728763991</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.215982880420364</v>
+        <v>3.200754991856776</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.401598125644686</v>
+        <v>3.408250609495971</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.941751504612254</v>
+        <v>3.940746874036088</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>3.065300581076175</v>
+        <v>3.071707221966236</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>3.391785004457286</v>
+        <v>3.423084513236423</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.934411602247506</v>
+        <v>3.919930984658471</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.495517658007165</v>
+        <v>2.487587355014822</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.115451554001039</v>
+        <v>3.125687332329166</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.305820961689262</v>
+        <v>3.294013493243325</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.604383394040973</v>
+        <v>2.586061511383408</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.91538482851679</v>
+        <v>2.892427890611537</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.469173327153813</v>
+        <v>3.458369124002604</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.629509659195783</v>
+        <v>2.633165145231072</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.049929436835032</v>
+        <v>3.071652553537966</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.457134348249825</v>
+        <v>3.451240888121809</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.071165109196942</v>
+        <v>3.002127296994301</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.602690873520592</v>
+        <v>3.601332087022096</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.819063043040357</v>
+        <v>3.829299859019859</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.023176501415248</v>
+        <v>3.019371425165866</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.35852831595531</v>
+        <v>3.342843448527322</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.809181077896686</v>
+        <v>3.802185838543672</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.953108208086317</v>
+        <v>2.973209268206187</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.377273039032047</v>
+        <v>3.397515505336225</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.767473356723931</v>
+        <v>3.754313729788112</v>
       </c>
     </row>
     <row r="19">
@@ -1187,7 +1187,7 @@
         <v>2.857091920364543</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3.944907084842006</v>
+        <v>3.944907084842007</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>2.854125517125807</v>
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.291896628088223</v>
+        <v>1.296137088780969</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.519352008741981</v>
+        <v>2.479119178715506</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3.321200474816455</v>
+        <v>3.362676132874496</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.684745653460698</v>
+        <v>2.699025597299298</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2.723146101571944</v>
+        <v>2.714212072433094</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>2.79349293795774</v>
+        <v>2.808547335068698</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>2.461001064255443</v>
+        <v>2.4568863318397</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>2.724362522305956</v>
+        <v>2.728575706518801</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>2.993849778668005</v>
+        <v>3.022363221005606</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.87351698669559</v>
+        <v>1.877509857469434</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.223108526614091</v>
+        <v>3.200841208846526</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.503820379084742</v>
+        <v>4.548935737312386</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.024268493891757</v>
+        <v>3.0279459850779</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>3.067766261758994</v>
+        <v>3.08067286675899</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>3.158533170374291</v>
+        <v>3.187157899526387</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>2.754087692951848</v>
+        <v>2.754082480704878</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>3.060694645234173</v>
+        <v>3.047637016682496</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>3.377067665954166</v>
+        <v>3.406568224211361</v>
       </c>
     </row>
     <row r="22">
@@ -1314,7 +1314,7 @@
         <v>3.225171453073979</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>3.706343569027607</v>
+        <v>3.706343569027608</v>
       </c>
     </row>
     <row r="23">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.527225865302722</v>
+        <v>2.536580634920913</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.202286776023937</v>
+        <v>3.191091155796739</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.770291909292829</v>
+        <v>3.759517459477869</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.774742522423421</v>
+        <v>2.772886254969575</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.051492507123465</v>
+        <v>3.047152771025084</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.461534428395397</v>
+        <v>3.459766921168543</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.690658913799022</v>
+        <v>2.687601806701568</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.156136839350291</v>
+        <v>3.155957361529086</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.631166352544394</v>
+        <v>3.633225512222098</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.730742742768027</v>
+        <v>2.739837816294676</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.4025482066479</v>
+        <v>3.404327940780614</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.987456066187659</v>
+        <v>3.98023304571653</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.962948988732325</v>
+        <v>2.966275539504079</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.255531551704665</v>
+        <v>3.25177721791862</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.620970605693356</v>
+        <v>3.629449365545451</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.821998555641765</v>
+        <v>2.831288460625434</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.289854423381264</v>
+        <v>3.293082579919307</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.765413887016896</v>
+        <v>3.769782942712959</v>
       </c>
     </row>
     <row r="25">
